--- a/QLBG/GUI/Resources/Import/DsNhapHangLan1.xlsx
+++ b/QLBG/GUI/Resources/Import/DsNhapHangLan1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CNTT K21\HK1_2024-2025\C#\QLBG\QLBG\QLBG\GUI\Resources\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534E8C95-A06E-4B6C-9BD7-D9B61E878698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29E9471-A575-4A4C-8361-D71C403A29D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" xr2:uid="{2AAC774F-DD94-4C52-BF03-5834FAAF6F48}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>G002</t>
+  </si>
+  <si>
+    <t>G010</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +564,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>41</v>
